--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/10/seed4/result_data_RandomForest.xlsx
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.3709</v>
+        <v>-12.9086</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.357299999999999</v>
+        <v>5.424999999999998</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.88800000000001</v>
+        <v>-11.1258</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.805599999999998</v>
+        <v>6.455899999999998</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.476799999999994</v>
+        <v>9.275099999999995</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-13.0476</v>
+        <v>-13.21560000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,10 +890,10 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.893700000000003</v>
+        <v>6.549300000000003</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.76859999999999</v>
+        <v>-12.9157</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.3795</v>
+        <v>-11.29280000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.8871</v>
+        <v>-13.47100000000001</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.3058</v>
+        <v>-12.9192</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.5382</v>
+        <v>-11.5561</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.9404</v>
+        <v>-13.54139999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1604,10 +1604,10 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.1018</v>
+        <v>5.829299999999998</v>
       </c>
       <c r="C69" t="n">
-        <v>-12.5262</v>
+        <v>-12.5463</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,7 +1624,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.3278</v>
+        <v>-11.2967</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.3223</v>
+        <v>5.547900000000001</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.811299999999999</v>
+        <v>5.644499999999998</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-14.1235</v>
+        <v>-14.2065</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.38650000000001</v>
+        <v>-13.17000000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
